--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -25,17 +25,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="H:MM;@"/>
-    <numFmt numFmtId="173" formatCode="[$-409]H:MM\ AM/PM;@"/>
+    <numFmt numFmtId="170" formatCode="0"/>
+    <numFmt numFmtId="171" formatCode="[$-409]0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -247,16 +245,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,10 +262,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -300,7 +294,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,19 +302,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,10 +314,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -348,7 +330,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,10 +338,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -372,12 +350,12 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -466,14 +444,15 @@
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W19" activeCellId="0" sqref="W19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="1" width="6.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="5.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -484,273 +463,273 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="8"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="10"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="32"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -819,13 +798,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="27" width="5.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -108,6 +108,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -194,6 +201,48 @@
       <right/>
       <top style="dotted"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="dotted"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="hair"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -245,7 +294,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,30 +303,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="3" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -286,8 +331,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -295,7 +340,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -310,47 +355,55 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,21 +491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="1" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="5.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -711,25 +764,25 @@
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -782,7 +835,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.4" right="1.6875" top="1.07291666666667" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52
 page &amp;P</oddHeader>
@@ -792,25 +845,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="27" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="12.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="28" width="5.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -256,7 +256,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -446,12 +446,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="1" width="7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="5.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -440,18 +440,18 @@
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="1" width="5.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="5.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -780,14 +780,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="27" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="27" width="5.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="27" width="5.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,7 +72,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,7 +82,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -283,7 +289,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,27 +313,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,7 +392,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -440,8 +446,8 @@
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,7 +786,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhi.NTT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -313,22 +313,69 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,59 +384,12 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,293 +742,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13" style="12" customWidth="1"/>
-    <col min="2" max="21" width="5.85546875" style="12" customWidth="1"/>
-    <col min="22" max="1024" width="5.42578125" style="12"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="16" width="5.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
+    <col min="18" max="21" width="5.85546875" style="1" customWidth="1"/>
+    <col min="22" max="1024" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+    <row r="1" spans="1:21">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="7"/>
+    <row r="2" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7"/>
+    <row r="3" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
     </row>
-    <row r="4" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="5"/>
+    <row r="4" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
     </row>
-    <row r="5" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="5"/>
+    <row r="5" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
     </row>
-    <row r="6" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+    <row r="6" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
+    <row r="7" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+    <row r="8" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+    <row r="9" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+    <row r="10" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
+    <row r="11" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+    <row r="12" spans="1:21" ht="16.350000000000001" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -1045,24 +1053,18 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.4" right="1.6875" top="1.0729166666666701" bottom="1.05277777777778" header="0.68" footer="0.78749999999999998"/>
@@ -1081,11 +1083,11 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="27" customWidth="1"/>
-    <col min="2" max="21" width="5.85546875" style="27" customWidth="1"/>
-    <col min="22" max="1024" width="5.5703125" style="27"/>
+    <col min="1" max="1" width="12.140625" style="16" customWidth="1"/>
+    <col min="2" max="21" width="5.85546875" style="16" customWidth="1"/>
+    <col min="22" max="1024" width="5.5703125" style="16"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -452,7 +452,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="2" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="1" width="5.86"/>
@@ -771,7 +771,7 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="1.4" right="1.6875" top="1.07291666666667" bottom="1.05277777777778" header="0.679861111111111" footer="0.7875"/>
+  <pageMargins left="1.5" right="1.5" top="1.07291666666667" bottom="1.05277777777778" header="0.679861111111111" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -450,13 +450,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.96484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="2" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="5.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +768,7 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="1.5" right="1.5" top="1.07291666666667" bottom="1.05277777777778" header="0.679861111111111" footer="0.7875"/>
+  <pageMargins left="1" right="1" top="2.2" bottom="2.2" header="1.5" footer="1.5"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52
@@ -788,20 +785,19 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.96484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="27" width="5.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="27" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="27" width="5.96"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1" right="1" top="2.2" bottom="2.2" header="1.5" footer="1.5"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -446,7 +446,7 @@
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -785,19 +785,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.96484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="12.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="27" width="5.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="27" width="11.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="2.2" bottom="2.2" header="1.5" footer="1.5"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR07.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E00991-80C8-4C0C-911F-2B318EF67A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$2:$O$5</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]0"/>
   </numFmts>
@@ -314,22 +308,69 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,64 +379,17 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="1"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -767,302 +761,308 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="12" customWidth="1"/>
-    <col min="2" max="1024" width="6" style="12"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="7"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
     </row>
     <row r="4" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="5"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
     </row>
     <row r="5" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="5"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -1079,44 +1079,37 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52
-page &amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ フォントサイズ,Regular"&amp;7毛テスト会社&amp;C&amp;"ＭＳ フォントサイズ,Bold"&amp;9KIATISAS&amp;R&amp;"MS フォントサイズ,Regular"&amp;7 2020/12/17  13:52page &amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1024" width="11.5703125" style="27"/>
+    <col min="1" max="1024" width="11.5703125" style="16"/>
   </cols>
   <sheetData/>
   <printOptions horizontalCentered="1"/>
